--- a/Clase_10/Predict_Base_Transporte_ARIMA.xlsx
+++ b/Clase_10/Predict_Base_Transporte_ARIMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminolivavazquez/Documents/Personal/Cursos_UNAM/SERIES_2022-I/Series-de-Tiempo-2021/Clase_10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2023-I/Series-de-Tiempo-2022/Clase_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571634A8-E7CF-BC49-8EA5-E91A3F3B6897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E6A14-FB9B-0C49-B21E-E94937FCBB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
+    <workbookView xWindow="36640" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Periodo</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>D_Mar2021</t>
+  </si>
+  <si>
+    <t>D_Ene2022</t>
+  </si>
+  <si>
+    <t>D_Feb2022</t>
   </si>
 </sst>
 </file>
@@ -432,13 +438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033B569-E481-7947-93CD-4A9A959244F1}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,10 +492,16 @@
       <c r="O1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44409</v>
+        <v>44743</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -531,10 +545,16 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44440</v>
+        <v>44774</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -578,10 +598,16 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44470</v>
+        <v>44805</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -625,10 +651,16 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44501</v>
+        <v>44835</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -672,10 +704,16 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -719,10 +757,16 @@
       <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44562</v>
+        <v>44896</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -766,10 +810,16 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44593</v>
+        <v>44927</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -813,10 +863,16 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44621</v>
+        <v>44958</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -860,10 +916,16 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44652</v>
+        <v>44986</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -907,10 +969,16 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44682</v>
+        <v>45017</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -954,10 +1022,16 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44713</v>
+        <v>45047</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1001,10 +1075,16 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44743</v>
+        <v>45078</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1048,10 +1128,16 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44774</v>
+        <v>45108</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1095,10 +1181,16 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44805</v>
+        <v>45139</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1142,10 +1234,16 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44835</v>
+        <v>45170</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1189,10 +1287,16 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44866</v>
+        <v>45200</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1236,10 +1340,16 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44896</v>
+        <v>45231</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1283,10 +1393,16 @@
       <c r="O18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44927</v>
+        <v>45261</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1330,10 +1446,16 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44958</v>
+        <v>45292</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1377,10 +1499,16 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44986</v>
+        <v>45323</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1424,10 +1552,16 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45017</v>
+        <v>45352</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1471,10 +1605,16 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45047</v>
+        <v>45383</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1518,10 +1658,16 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45078</v>
+        <v>45413</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1565,10 +1711,16 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45108</v>
+        <v>45444</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1610,6 +1762,12 @@
         <v>1</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>
